--- a/biology/Botanique/Johannes_Scherbius/Johannes_Scherbius.xlsx
+++ b/biology/Botanique/Johannes_Scherbius/Johannes_Scherbius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johannes Scherbius, né le 1er juin 1769 à Francfort-sur-le-Main et mort le 8 novembre 1813, est un physicien et botaniste allemand[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johannes Scherbius, né le 1er juin 1769 à Francfort-sur-le-Main et mort le 8 novembre 1813, est un physicien et botaniste allemand.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1790, il obtient son doctorat de médecine à l'Université d'Iéna, et commence à travailler en tant que physicien à Francfort, où il s'associe avec le Muséum Senckenberg[2].
-Avec Philipp Gottfried Gaertner et Bernhard Meyer, il coécrit Oekonomisch-technische Flora der Wetterau, un travail en trois volumes, qui sera la source de plusieurs études et observation scientifiques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1790, il obtient son doctorat de médecine à l'Université d'Iéna, et commence à travailler en tant que physicien à Francfort, où il s'associe avec le Muséum Senckenberg.
+Avec Philipp Gottfried Gaertner et Bernhard Meyer, il coécrit Oekonomisch-technische Flora der Wetterau, un travail en trois volumes, qui sera la source de plusieurs études et observation scientifiques.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Travaux publiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dissertatio inauguralis medica de Lysimachiae purpureae sive Lythri salicariae Linn. virtute medicinali non dubia, Jenae, Ex Officina Fiedleriana (1790).
 Commentationis de sanguinis missione in febribus intermittentibus, (1790).
-Oekonomisch-technische Flora der Wetterau, (1799-1802, 3 vols. [vol. 1 (VI-VII.1799); vol. 2 (V-VII.1800); vol. 3 (1) (I-VI.1801); vol. 3 (2) (1802); (with Philipp Gottfried Gaertner and Bernhard Meyer)[4].
-Pharmakopoe und Arznei-Taxe für das bei der hiesigen Armen-Anstalt angestellte medicinische Personale, (1809)[5].</t>
+Oekonomisch-technische Flora der Wetterau, (1799-1802, 3 vols. [vol. 1 (VI-VII.1799); vol. 2 (V-VII.1800); vol. 3 (1) (I-VI.1801); vol. 3 (2) (1802); (with Philipp Gottfried Gaertner and Bernhard Meyer).
+Pharmakopoe und Arznei-Taxe für das bei der hiesigen Armen-Anstalt angestellte medicinische Personale, (1809).</t>
         </is>
       </c>
     </row>
